--- a/project7data.xlsx
+++ b/project7data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LT1Fi\Downloads\Particles2019Template\Particles2019Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFA66D-D2D9-4753-AC68-B2D3C7ADC3F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Particle Count</t>
+  </si>
+  <si>
+    <t>Peak Performance (MegaParticles/Sec)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +348,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="B2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>524288</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>262144</v>
+      </c>
+      <c r="B4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>131072</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project7data.xlsx
+++ b/project7data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LT1Fi\Downloads\Particles2019Template\Particles2019Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EFA66D-D2D9-4753-AC68-B2D3C7ADC3F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD346512-7D86-4FA7-94CB-5AD106FB3F1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +74,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -84,6 +100,1968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Performance (MegaParticles/Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1585.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1579.14</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1563.96</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1531.1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1448.81</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1348.14</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1172.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>905.82</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>611.34</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>375.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>220.51</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>120.12</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>8.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9A7-463F-BCE7-EAF04C516777}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="503908792"/>
+        <c:axId val="503906872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="503908792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="33554432"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503906872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="503906872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503908792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Peak Performance (MegaParticles/Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1585.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1579.14</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>1563.96</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00">
+                  <c:v>1531.1</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>1448.81</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1348.14</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1172.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>905.82</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>611.34</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>375.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>220.51</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>120.12</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>8.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B30C-4EE9-9FB4-D14504AED529}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="674492496"/>
+        <c:axId val="674496976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="674492496"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="33554432"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674496976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="674496976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="674492496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40774BF-8B3B-423A-8735-A855C96AF063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BADBBF-2B4F-49F0-86D6-8776AB2D4F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,38 +2348,169 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
+        <f>2*A3</f>
+        <v>33554432</v>
+      </c>
+      <c r="B2">
+        <v>1585.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f>A4*2</f>
+        <v>16777216</v>
+      </c>
+      <c r="B3">
+        <v>1579.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>A5*2</f>
+        <v>8388608</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1563.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f>2097152*2</f>
+        <v>4194304</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1531.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2097152</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1448.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1048576</v>
       </c>
-      <c r="B2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B7" s="2">
+        <v>1348.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>524288</v>
       </c>
-      <c r="B3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B8" s="2">
+        <v>1172.9000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>262144</v>
       </c>
-      <c r="B4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B9" s="2">
+        <v>905.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>131072</v>
       </c>
-      <c r="B5">
-        <v>0.7</v>
-      </c>
+      <c r="B10" s="2">
+        <v>611.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>65536</v>
+      </c>
+      <c r="B11" s="2">
+        <v>375.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>32768</v>
+      </c>
+      <c r="B12" s="2">
+        <v>220.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B13" s="2">
+        <v>120.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B14" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4096</v>
+      </c>
+      <c r="B15" s="2">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>